--- a/py/sample_ins.xlsx
+++ b/py/sample_ins.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E4B2B17-FC3C-A44F-B3A8-FC58A4D54ACE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AEDFA5BB-DA03-0A45-881E-DD14B608DFAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="31360" windowHeight="26460"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="34280" windowHeight="28260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_ins" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -997,22 +997,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I461"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1475086</v>
       </c>
@@ -1069,8 +1070,24 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2">
+        <f>E2/30</f>
+        <v>-7.4333333333333336</v>
+      </c>
+      <c r="L2">
+        <f>F2/30</f>
+        <v>-7.4333333333333336</v>
+      </c>
+      <c r="N2">
+        <f>(E2+223)/30</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>(F2+223)/30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1475086</v>
       </c>
@@ -1098,8 +1115,24 @@
       <c r="I3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3">
+        <f t="shared" ref="K3:L11" si="0">E3/30</f>
+        <v>-8.4333333333333336</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>-8.9</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:O11" si="1">(E3+223)/30</f>
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>-1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1475086</v>
       </c>
@@ -1127,8 +1160,24 @@
       <c r="I4">
         <v>-16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-9.4333333333333336</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-8.9</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>-1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1475086</v>
       </c>
@@ -1156,8 +1205,24 @@
       <c r="I5">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-9.4333333333333336</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-10.466666666666667</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>-3.0333333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1475086</v>
       </c>
@@ -1185,8 +1250,24 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-10.433333333333334</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-10.466666666666667</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>-3.0333333333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1475086</v>
       </c>
@@ -1214,8 +1295,24 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-11.433333333333334</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>-11.433333333333334</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1475086</v>
       </c>
@@ -1243,8 +1340,24 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-12.433333333333334</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-12.433333333333334</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1475086</v>
       </c>
@@ -1272,8 +1385,24 @@
       <c r="I9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-13.433333333333334</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>-13.566666666666666</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>-6.1333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1475086</v>
       </c>
@@ -1301,8 +1430,24 @@
       <c r="I10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-14.433333333333334</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>-14.733333333333333</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1577229</v>
       </c>
@@ -1330,8 +1475,24 @@
       <c r="I11">
         <v>-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>-33.766666666666666</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>-33.633333333333333</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>-26.333333333333332</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>-26.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1577229</v>
       </c>
@@ -1360,7 +1521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>1577229</v>
       </c>
@@ -1389,7 +1550,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>1577229</v>
       </c>
@@ -1418,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>1577229</v>
       </c>
@@ -1447,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>1577229</v>
       </c>

--- a/py/sample_ins.xlsx
+++ b/py/sample_ins.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/py/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AEDFA5BB-DA03-0A45-881E-DD14B608DFAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27322"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="34280" windowHeight="28260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10460" yWindow="-20" windowWidth="28200" windowHeight="28560"/>
   </bookViews>
   <sheets>
     <sheet name="sample_ins" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +207,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -511,7 +528,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,31 +655,55 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="50">
+    <cellStyle name="20% - アクセント1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -671,7 +712,10 @@
     <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -681,11 +725,16 @@
     <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,7 +793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -796,7 +845,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -990,30 +1039,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O461"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="9" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="9" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1475086</v>
       </c>
@@ -1071,23 +1120,15 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>E2/30</f>
-        <v>-7.4333333333333336</v>
+        <f t="shared" ref="K2:K16" si="0">H2/G2</f>
+        <v>1</v>
       </c>
       <c r="L2">
-        <f>F2/30</f>
-        <v>-7.4333333333333336</v>
-      </c>
-      <c r="N2">
-        <f>(E2+223)/30</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>(F2+223)/30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <f>I2*K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1475086</v>
       </c>
@@ -1116,23 +1157,15 @@
         <v>14</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:L11" si="0">E3/30</f>
-        <v>-8.4333333333333336</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>-8.9</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:O11" si="1">(E3+223)/30</f>
-        <v>-1</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="1"/>
-        <v>-1.4666666666666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <f t="shared" ref="L3:L17" si="1">I3*K3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1475086</v>
       </c>
@@ -1162,22 +1195,14 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-9.4333333333333336</v>
+        <v>0.67155462722196169</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>-8.9</v>
-      </c>
-      <c r="N4">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>-1.4666666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>-10.744874035551387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1475086</v>
       </c>
@@ -1207,22 +1232,14 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>-9.4333333333333336</v>
+        <v>0.32844537277803831</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>-10.466666666666667</v>
-      </c>
-      <c r="N5">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>-3.0333333333333332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.181806556119188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1475086</v>
       </c>
@@ -1252,22 +1269,14 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>-10.433333333333334</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>-10.466666666666667</v>
-      </c>
-      <c r="N6">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>-3.0333333333333332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1475086</v>
       </c>
@@ -1297,22 +1306,14 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>-11.433333333333334</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>-11.433333333333334</v>
-      </c>
-      <c r="N7">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1475086</v>
       </c>
@@ -1342,22 +1343,14 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>-12.433333333333334</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>-12.433333333333334</v>
-      </c>
-      <c r="N8">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1475086</v>
       </c>
@@ -1387,22 +1380,14 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>-13.433333333333334</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
-        <v>-13.566666666666666</v>
-      </c>
-      <c r="N9">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>-6.1333333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1475086</v>
       </c>
@@ -1432,22 +1417,14 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>-14.433333333333334</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
-        <v>-14.733333333333333</v>
-      </c>
-      <c r="N10">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>-7.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1577229</v>
       </c>
@@ -1477,22 +1454,14 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>-33.766666666666666</v>
+        <v>0.98918054630246499</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
-        <v>-33.633333333333333</v>
-      </c>
-      <c r="N11">
         <f t="shared" si="1"/>
-        <v>-26.333333333333332</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>-26.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>-3.95672218520986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1577229</v>
       </c>
@@ -1520,8 +1489,16 @@
       <c r="I12">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1.0819453697534976E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.31376415722851431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>1577229</v>
       </c>
@@ -1549,8 +1526,16 @@
       <c r="I13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1577229</v>
       </c>
@@ -1578,8 +1563,16 @@
       <c r="I14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1577229</v>
       </c>
@@ -1607,8 +1600,16 @@
       <c r="I15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1577229</v>
       </c>
@@ -1636,8 +1637,16 @@
       <c r="I16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1577229</v>
       </c>
@@ -1665,8 +1674,16 @@
       <c r="I17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17">
+        <f>H17/G17</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>2829842</v>
       </c>
@@ -1695,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>2829842</v>
       </c>
@@ -1724,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>2829842</v>
       </c>
@@ -1753,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>2829842</v>
       </c>
@@ -1782,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>2829842</v>
       </c>
@@ -1811,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>2829842</v>
       </c>
@@ -1840,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>2829842</v>
       </c>
@@ -1869,7 +1886,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>2829842</v>
       </c>
@@ -1898,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>2829842</v>
       </c>
@@ -1927,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2829842</v>
       </c>
@@ -1956,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>2829842</v>
       </c>
@@ -1985,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>2829842</v>
       </c>
@@ -2014,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>2829842</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>2829842</v>
       </c>
@@ -2072,7 +2089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>2829842</v>
       </c>
@@ -14593,5 +14610,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>